--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234FF32-4AAD-41E6-A14D-454B3B30D0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17407229-0ECF-413E-B590-DF90EC0CED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,856 +397,869 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B2" s="4">
-        <v>4.1500000000000004</v>
+        <v>4.29</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">(B2/B14-1)*100</f>
-        <v>6.13810741687979</v>
+        <f>(B2/B14-1)*100</f>
+        <v>10.567010309278357</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C63" si="0">(B3/B15-1)*100</f>
+        <v>6.13810741687979</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
         <v>45597</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>3.96</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>2.857142857142847</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
-        <v>45566</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3.83</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-3.7688442211055273</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B5" s="4">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-3.7220843672456705</v>
+        <v>-3.7688442211055273</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B6" s="4">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-2.2222222222222143</v>
+        <v>-3.7220843672456705</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>45474</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3.9</v>
+        <v>45505</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.96</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-5.1094890510948954</v>
+        <v>-2.2222222222222143</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B8" s="5">
-        <v>4.1100000000000003</v>
+        <v>3.9</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-2.8368794326241176</v>
+        <v>-5.1094890510948954</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B9" s="5">
-        <v>4.1399999999999997</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-1.8957345971563955</v>
+        <v>-2.8368794326241176</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B10" s="5">
-        <v>4.22</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-2.9885057471264354</v>
+        <v>-1.8957345971563955</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B11" s="5">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-3.3112582781457012</v>
+        <v>-2.9885057471264354</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-1.7199017199017286</v>
+        <v>-3.3112582781457012</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B13" s="5">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-3.7220843672456705</v>
+        <v>-1.7199017199017286</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B14" s="5">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-5.097087378640774</v>
+        <v>-3.7220843672456705</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B15" s="5">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-13.288288288288296</v>
+        <v>-5.097087378640774</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B16" s="5">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-14.957264957264949</v>
+        <v>-13.288288288288296</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B17" s="5">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-15.513626834381533</v>
+        <v>-14.957264957264949</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" s="5">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-17.008196721311474</v>
+        <v>-15.513626834381533</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B19" s="5">
-        <v>4.1100000000000003</v>
+        <v>4.05</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-19.883040935672504</v>
+        <v>-17.008196721311474</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B20" s="5">
-        <v>4.2300000000000004</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-21.666666666666668</v>
+        <v>-19.883040935672504</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" s="5">
-        <v>4.22</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-24.236983842010783</v>
+        <v>-21.666666666666668</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B22" s="5">
-        <v>4.3499999999999996</v>
+        <v>4.22</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-23.550087873462221</v>
+        <v>-24.236983842010783</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" s="5">
-        <v>4.53</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-23.479729729729726</v>
+        <v>-23.550087873462221</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <v>44958</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4.07</v>
+        <v>44986</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4.53</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-35.804416403785488</v>
-      </c>
+        <v>-23.479729729729726</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B25" s="1">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-33.825944170771749</v>
+        <v>-35.804416403785488</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B26" s="1">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>-34.913112164296997</v>
+        <v>-33.825944170771749</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B27" s="1">
-        <v>4.4400000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>-28.271405492730207</v>
+        <v>-34.913112164296997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B28" s="1">
-        <v>4.68</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>-24.271844660194176</v>
+        <v>-28.271405492730207</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B29" s="1">
-        <v>4.7699999999999996</v>
+        <v>4.68</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>-20.367278797996669</v>
+        <v>-24.271844660194176</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="1">
-        <v>4.88</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>-19.071310116086238</v>
+        <v>-20.367278797996669</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B31" s="1">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-14.070351758793965</v>
+        <v>-19.071310116086238</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B32" s="1">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>-8.7837837837837718</v>
+        <v>-14.070351758793965</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B33" s="1">
-        <v>5.57</v>
+        <v>5.4</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-6.5436241610738239</v>
+        <v>-8.7837837837837718</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B34" s="1">
-        <v>5.69</v>
+        <v>5.57</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>-5.7947019867549576</v>
+        <v>-6.5436241610738239</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B35" s="1">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-4.0518638573743937</v>
+        <v>-5.7947019867549576</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B36" s="1">
-        <v>6.34</v>
+        <v>5.92</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>-4.661654135338356</v>
+        <v>-4.0518638573743937</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B37" s="1">
-        <v>6.09</v>
+        <v>6.34</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>-8.4210526315789522</v>
+        <v>-4.661654135338356</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B38" s="1">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>-3.9453717754172946</v>
+        <v>-8.4210526315789522</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B39" s="1">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>-8.0237741456166471</v>
+        <v>-3.9453717754172946</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="1">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>-5.7926829268292623</v>
+        <v>-8.0237741456166471</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B41" s="1">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>-5.6692913385826715</v>
+        <v>-5.7926829268292623</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B42" s="1">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>-0.16556291390728006</v>
+        <v>-5.6692913385826715</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B43" s="1">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.16778523489933139</v>
+        <v>-0.16556291390728006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B44" s="1">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>21.560574948665302</v>
+        <v>0.16778523489933139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B45" s="1">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>45.721271393643036</v>
+        <v>21.560574948665302</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B46" s="1">
-        <v>6.04</v>
+        <v>5.96</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>35.426008968609857</v>
+        <v>45.721271393643036</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B47" s="1">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>15.543071161048694</v>
+        <v>35.426008968609857</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B48" s="1">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>18.117229129662537</v>
+        <v>15.543071161048694</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B49" s="1">
         <v>6.65</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>24.299065420560773</v>
+        <v>18.117229129662537</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B50" s="1">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>20.917431192660541</v>
+        <v>24.299065420560773</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B51" s="1">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>27.946768060836511</v>
+        <v>20.917431192660541</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
-        <v>44105</v>
-      </c>
-      <c r="B52" s="2">
-        <v>6.56</v>
+        <v>44136</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6.73</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>24.007561436672951</v>
+        <v>27.946768060836511</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B53" s="2">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>19.585687382297557</v>
+        <v>24.007561436672951</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B54" s="2">
-        <v>6.04</v>
+        <v>6.35</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>10.420475319926869</v>
+        <v>19.585687382297557</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B55" s="2">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>9.7605893186003776</v>
+        <v>10.420475319926869</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B56" s="2">
-        <v>4.87</v>
+        <v>5.96</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>-9.6474953617810666</v>
+        <v>9.7605893186003776</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B57" s="2">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>-25.091575091575091</v>
+        <v>-9.6474953617810666</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B58" s="2">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>-16.007532956685488</v>
+        <v>-25.091575091575091</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B59" s="2">
-        <v>5.34</v>
+        <v>4.46</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>1.7142857142857126</v>
+        <v>-16.007532956685488</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B60" s="2">
-        <v>5.63</v>
+        <v>5.34</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>6.026365348399243</v>
+        <v>1.7142857142857126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B61" s="2">
-        <v>5.35</v>
+        <v>5.63</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>7.64587525150906</v>
+        <v>6.026365348399243</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B62" s="2">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>8.782435129740529</v>
+        <v>7.64587525150906</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63" s="2">
-        <v>5.26</v>
+        <v>5.45</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>8.782435129740529</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B64" s="2">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B65" s="2">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B66" s="2">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B67" s="2">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B68" s="2">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B69" s="2">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B70" s="2">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B71" s="2">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B72" s="2">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B73" s="2">
-        <v>4.97</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
+        <v>43466</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3">
         <v>43435</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>5.01</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3"/>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17407229-0ECF-413E-B590-DF90EC0CED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881025FF-26B8-4E80-853A-09B04E6DDD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B2" s="4">
         <v>4.29</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B3" s="4">
         <v>4.1500000000000004</v>
@@ -422,8 +422,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
-        <v>45597</v>
+      <c r="A4" s="3">
+        <v>45566</v>
       </c>
       <c r="B4" s="4">
         <v>3.96</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B5" s="4">
         <v>3.83</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B6" s="4">
         <v>3.88</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B7" s="4">
         <v>3.96</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B8" s="5">
         <v>3.9</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B9" s="5">
         <v>4.1100000000000003</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B10" s="5">
         <v>4.1399999999999997</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B11" s="5">
         <v>4.22</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B12" s="5">
         <v>4.38</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B14" s="5">
         <v>3.88</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B15" s="5">
         <v>3.91</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B16" s="5">
         <v>3.85</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B17" s="5">
         <v>3.98</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B18" s="5">
         <v>4.03</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B19" s="5">
         <v>4.05</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B20" s="5">
         <v>4.1100000000000003</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B21" s="5">
         <v>4.2300000000000004</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B22" s="5">
         <v>4.22</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B23" s="5">
         <v>4.3499999999999996</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B24" s="5">
         <v>4.53</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B25" s="1">
         <v>4.07</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B26" s="1">
         <v>4.03</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B27" s="1">
         <v>4.12</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B28" s="1">
         <v>4.4400000000000004</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B29" s="1">
         <v>4.68</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B30" s="1">
         <v>4.7699999999999996</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B31" s="1">
         <v>4.88</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B32" s="1">
         <v>5.13</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B33" s="1">
         <v>5.4</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B34" s="1">
         <v>5.57</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B35" s="1">
         <v>5.69</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B36" s="1">
         <v>5.92</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B37" s="1">
         <v>6.34</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B38" s="1">
         <v>6.09</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B39" s="1">
         <v>6.33</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B40" s="1">
         <v>6.19</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B41" s="1">
         <v>6.18</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B42" s="1">
         <v>5.99</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B43" s="1">
         <v>6.03</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B44" s="1">
         <v>5.97</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B45" s="1">
         <v>5.92</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B46" s="1">
         <v>5.96</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B47" s="1">
         <v>6.04</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B48" s="1">
         <v>6.17</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B49" s="1">
         <v>6.65</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B50" s="1">
         <v>6.65</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B51" s="1">
         <v>6.59</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B52" s="1">
         <v>6.73</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B53" s="2">
         <v>6.56</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B54" s="2">
         <v>6.35</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B55" s="2">
         <v>6.04</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B56" s="2">
         <v>5.96</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B57" s="2">
         <v>4.87</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B58" s="2">
         <v>4.09</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B59" s="2">
         <v>4.46</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B60" s="2">
         <v>5.34</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B61" s="2">
         <v>5.63</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B62" s="2">
         <v>5.35</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B63" s="2">
         <v>5.45</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B64" s="2">
         <v>5.26</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B65" s="2">
         <v>5.29</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B66" s="2">
         <v>5.31</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B67" s="2">
         <v>5.47</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B68" s="2">
         <v>5.43</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B69" s="2">
         <v>5.39</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B70" s="2">
         <v>5.46</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B71" s="2">
         <v>5.31</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B72" s="2">
         <v>5.25</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B73" s="2">
         <v>5.31</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B74" s="2">
         <v>4.97</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B75" s="2">
         <v>5.01</v>

--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +436,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>4.26</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>4.08</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
         <v/>
       </c>
-      <c r="D3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -475,10 +476,10 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.15</v>
+        <v>4.29</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -487,11 +488,11 @@
       <c r="D5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45566</v>
+      <c r="A6" s="6" t="n">
+        <v>45597</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.96</v>
+        <v>4.15</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -501,10 +502,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.83</v>
+        <v>3.96</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -514,10 +515,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -527,10 +528,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -540,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>3.9</v>
+        <v>45474</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>3.96</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -553,10 +554,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -566,10 +567,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -579,10 +580,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -592,10 +593,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -605,10 +606,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -618,10 +619,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -631,10 +632,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -644,10 +645,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -657,10 +658,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -670,10 +671,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -683,10 +684,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -696,10 +697,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -709,10 +710,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -722,10 +723,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -735,10 +736,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -748,10 +749,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>4.53</v>
+        <v>4.35</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -761,22 +762,23 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>4.07</v>
+        <v>44958</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>4.53</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
         <v/>
       </c>
+      <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -785,10 +787,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -797,10 +799,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>4.44</v>
+        <v>4.12</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -809,10 +811,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -821,10 +823,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>4.77</v>
+        <v>4.68</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -833,10 +835,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>4.88</v>
+        <v>4.77</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -845,10 +847,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -857,10 +859,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -869,10 +871,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>5.57</v>
+        <v>5.4</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -881,10 +883,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>5.69</v>
+        <v>5.57</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -893,10 +895,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -905,10 +907,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>6.34</v>
+        <v>5.92</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -917,10 +919,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>6.09</v>
+        <v>6.34</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -929,10 +931,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -941,10 +943,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -953,10 +955,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -965,10 +967,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -977,10 +979,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -989,10 +991,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1001,10 +1003,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1013,10 +1015,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1025,10 +1027,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>6.04</v>
+        <v>5.96</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1037,10 +1039,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1049,10 +1051,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1061,7 +1063,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>6.65</v>
@@ -1073,10 +1075,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1085,10 +1087,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1097,10 +1099,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>6.56</v>
+        <v>44105</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>6.73</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1109,10 +1111,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1121,10 +1123,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>6.04</v>
+        <v>6.35</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1133,10 +1135,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1145,10 +1147,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>4.87</v>
+        <v>5.96</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1157,10 +1159,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1169,10 +1171,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1181,10 +1183,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>5.34</v>
+        <v>4.46</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1193,10 +1195,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>5.63</v>
+        <v>5.34</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1205,10 +1207,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>5.35</v>
+        <v>5.63</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1217,10 +1219,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1229,10 +1231,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1241,10 +1243,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1253,10 +1255,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1265,10 +1267,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1277,10 +1279,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1289,10 +1291,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1301,10 +1303,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1313,10 +1315,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1325,10 +1327,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1337,10 +1339,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1349,10 +1351,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>4.97</v>
+        <v>5.31</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1361,10 +1363,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>5.01</v>
+        <v>4.97</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1372,9 +1374,21 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n"/>
+      <c r="A78" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>5.01</v>
+      </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n"/>
+      <c r="C79">
+        <f>(B79/B91-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,36 +450,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>4.26</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>4.08</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
         <v/>
       </c>
-      <c r="D4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -489,10 +490,10 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.15</v>
+        <v>4.29</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -501,11 +502,11 @@
       <c r="D6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45566</v>
+      <c r="A7" s="6" t="n">
+        <v>45597</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.96</v>
+        <v>4.15</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -515,10 +516,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.83</v>
+        <v>3.96</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -528,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -541,10 +542,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -554,10 +555,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>3.9</v>
+        <v>45474</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>3.96</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -567,10 +568,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -580,10 +581,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -593,10 +594,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -606,10 +607,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -619,10 +620,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -632,10 +633,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -645,10 +646,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -658,10 +659,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -671,10 +672,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -684,10 +685,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -697,10 +698,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -710,10 +711,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -723,10 +724,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -736,10 +737,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -749,10 +750,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -762,10 +763,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>4.53</v>
+        <v>4.35</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -775,22 +776,23 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>4.07</v>
+        <v>44958</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>4.53</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
         <v/>
       </c>
+      <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -799,10 +801,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -811,10 +813,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>4.44</v>
+        <v>4.12</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -823,10 +825,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -835,10 +837,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>4.77</v>
+        <v>4.68</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -847,10 +849,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>4.88</v>
+        <v>4.77</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -859,10 +861,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -871,10 +873,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -883,10 +885,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>5.57</v>
+        <v>5.4</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -895,10 +897,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>5.69</v>
+        <v>5.57</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -907,10 +909,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -919,10 +921,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>6.34</v>
+        <v>5.92</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -931,10 +933,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>6.09</v>
+        <v>6.34</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -943,10 +945,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -955,10 +957,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -967,10 +969,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -979,10 +981,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -991,10 +993,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1003,10 +1005,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1015,10 +1017,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1027,10 +1029,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1039,10 +1041,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>6.04</v>
+        <v>5.96</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1051,10 +1053,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1063,10 +1065,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1075,7 +1077,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>6.65</v>
@@ -1087,10 +1089,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1099,10 +1101,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1111,10 +1113,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>6.56</v>
+        <v>44105</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>6.73</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1123,10 +1125,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1135,10 +1137,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>6.04</v>
+        <v>6.35</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1147,10 +1149,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1159,10 +1161,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>4.87</v>
+        <v>5.96</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1171,10 +1173,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1183,10 +1185,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1195,10 +1197,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>5.34</v>
+        <v>4.46</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1207,10 +1209,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>5.63</v>
+        <v>5.34</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1219,10 +1221,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>5.35</v>
+        <v>5.63</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1231,10 +1233,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1243,10 +1245,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1255,10 +1257,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1267,10 +1269,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1279,10 +1281,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1291,10 +1293,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1303,10 +1305,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1315,10 +1317,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1327,10 +1329,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1339,10 +1341,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1351,10 +1353,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1363,10 +1365,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>4.97</v>
+        <v>5.31</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1375,10 +1377,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>5.01</v>
+        <v>4.97</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1386,9 +1388,21 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n"/>
+      <c r="A79" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>5.01</v>
+      </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n"/>
+      <c r="C80">
+        <f>(B80/B92-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,864 +436,877 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>4.03</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>-1.9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B4" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.7</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B5" t="n">
-        <v>4.26</v>
+        <v>4.02</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.7</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.08</v>
+        <v>45689</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.26</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="n"/>
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="C7" t="n">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B9" s="4" t="n">
         <v>4.15</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6.1</v>
-      </c>
-      <c r="D8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.9</v>
       </c>
       <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.83</v>
+        <v>3.96</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.2</v>
+        <v>-3.7</v>
       </c>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>3.9</v>
+        <v>45474</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>3.96</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.1</v>
+        <v>-2.2</v>
       </c>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.8</v>
+        <v>-5.1</v>
       </c>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="C16" t="n">
-        <v>-3</v>
+        <v>-1.9</v>
       </c>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.7</v>
+        <v>-1.7</v>
       </c>
       <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.1</v>
+        <v>-3.7</v>
       </c>
       <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.3</v>
+        <v>-5.1</v>
       </c>
       <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="C22" t="n">
-        <v>-15</v>
+        <v>-13.3</v>
       </c>
       <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C24" t="n">
-        <v>-17</v>
+        <v>-15.5</v>
       </c>
       <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="C25" t="n">
-        <v>-19.9</v>
+        <v>-17</v>
       </c>
       <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="C26" t="n">
-        <v>-21.7</v>
+        <v>-19.9</v>
       </c>
       <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C27" t="n">
-        <v>-24.2</v>
+        <v>-21.7</v>
       </c>
       <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="C28" t="n">
-        <v>-23.6</v>
+        <v>-24.2</v>
       </c>
       <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>4.53</v>
+        <v>4.35</v>
       </c>
       <c r="C29" t="n">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>4.07</v>
+        <v>44958</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>4.53</v>
       </c>
       <c r="C30" t="n">
-        <v>-35.8</v>
-      </c>
+        <v>-23.5</v>
+      </c>
+      <c r="D30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C31" t="n">
-        <v>-33.8</v>
+        <v>-35.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="C32" t="n">
-        <v>-34.9</v>
+        <v>-33.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>4.44</v>
+        <v>4.12</v>
       </c>
       <c r="C33" t="n">
-        <v>-28.3</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="C34" t="n">
-        <v>-24.3</v>
+        <v>-28.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>4.77</v>
+        <v>4.68</v>
       </c>
       <c r="C35" t="n">
-        <v>-20.4</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>4.88</v>
+        <v>4.77</v>
       </c>
       <c r="C36" t="n">
-        <v>-19.1</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.1</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.800000000000001</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>5.57</v>
+        <v>5.4</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.5</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>5.69</v>
+        <v>5.57</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.8</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="C41" t="n">
-        <v>-4.1</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>6.34</v>
+        <v>5.92</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.7</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>6.09</v>
+        <v>6.34</v>
       </c>
       <c r="C43" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.9</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="C45" t="n">
-        <v>-8</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C46" t="n">
-        <v>-5.8</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C50" t="n">
-        <v>21.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C51" t="n">
-        <v>45.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>6.04</v>
+        <v>5.96</v>
       </c>
       <c r="C52" t="n">
-        <v>35.4</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="C53" t="n">
-        <v>15.5</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="C54" t="n">
-        <v>18.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>6.65</v>
       </c>
       <c r="C55" t="n">
-        <v>24.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C56" t="n">
-        <v>20.9</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C57" t="n">
-        <v>27.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>6.56</v>
+        <v>44105</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>6.73</v>
       </c>
       <c r="C58" t="n">
-        <v>24</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="C59" t="n">
-        <v>19.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>6.04</v>
+        <v>6.35</v>
       </c>
       <c r="C60" t="n">
-        <v>10.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="C61" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>4.87</v>
+        <v>5.96</v>
       </c>
       <c r="C62" t="n">
-        <v>-9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="C63" t="n">
-        <v>-25.1</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="C64" t="n">
-        <v>-16</v>
+        <v>-25.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>5.34</v>
+        <v>4.46</v>
       </c>
       <c r="C65" t="n">
-        <v>1.7</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>5.63</v>
+        <v>5.34</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>5.35</v>
+        <v>5.63</v>
       </c>
       <c r="C67" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="C68" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>4.97</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
         <v>43405</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B81" s="2" t="n">
         <v>5.01</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="3" t="n"/>
+    <row r="82">
+      <c r="A82" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,877 +436,890 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.93</v>
+        <v>4.01</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>4.03</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>-1.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-3.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B5" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.7</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B6" t="n">
-        <v>4.26</v>
+        <v>4.02</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.7</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>4.08</v>
+        <v>45689</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.26</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="n"/>
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="C8" t="n">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B10" s="4" t="n">
         <v>4.15</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6.1</v>
-      </c>
-      <c r="D9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.9</v>
       </c>
       <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3.83</v>
+        <v>3.96</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.2</v>
+        <v>-3.7</v>
       </c>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>3.9</v>
+        <v>45474</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>3.96</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.1</v>
+        <v>-2.2</v>
       </c>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.8</v>
+        <v>-5.1</v>
       </c>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="C17" t="n">
-        <v>-3</v>
+        <v>-1.9</v>
       </c>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.7</v>
+        <v>-1.7</v>
       </c>
       <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.1</v>
+        <v>-3.7</v>
       </c>
       <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.3</v>
+        <v>-5.1</v>
       </c>
       <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="C23" t="n">
-        <v>-15</v>
+        <v>-13.3</v>
       </c>
       <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C24" t="n">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C25" t="n">
-        <v>-17</v>
+        <v>-15.5</v>
       </c>
       <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="C26" t="n">
-        <v>-19.9</v>
+        <v>-17</v>
       </c>
       <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="C27" t="n">
-        <v>-21.7</v>
+        <v>-19.9</v>
       </c>
       <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C28" t="n">
-        <v>-24.2</v>
+        <v>-21.7</v>
       </c>
       <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="C29" t="n">
-        <v>-23.6</v>
+        <v>-24.2</v>
       </c>
       <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>4.53</v>
+        <v>4.35</v>
       </c>
       <c r="C30" t="n">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="D30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>4.07</v>
+        <v>44958</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>4.53</v>
       </c>
       <c r="C31" t="n">
-        <v>-35.8</v>
-      </c>
+        <v>-23.5</v>
+      </c>
+      <c r="D31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.8</v>
+        <v>-35.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="C33" t="n">
-        <v>-34.9</v>
+        <v>-33.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>4.44</v>
+        <v>4.12</v>
       </c>
       <c r="C34" t="n">
-        <v>-28.3</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="C35" t="n">
-        <v>-24.3</v>
+        <v>-28.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>4.77</v>
+        <v>4.68</v>
       </c>
       <c r="C36" t="n">
-        <v>-20.4</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>4.88</v>
+        <v>4.77</v>
       </c>
       <c r="C37" t="n">
-        <v>-19.1</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C38" t="n">
-        <v>-14.1</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="C39" t="n">
-        <v>-8.800000000000001</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>5.57</v>
+        <v>5.4</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.5</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>5.69</v>
+        <v>5.57</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.8</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.1</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>6.34</v>
+        <v>5.92</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.7</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>6.09</v>
+        <v>6.34</v>
       </c>
       <c r="C44" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.9</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="C46" t="n">
-        <v>-8</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.8</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
       <c r="C48" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C51" t="n">
-        <v>21.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C52" t="n">
-        <v>45.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>6.04</v>
+        <v>5.96</v>
       </c>
       <c r="C53" t="n">
-        <v>35.4</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="C54" t="n">
-        <v>15.5</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="C55" t="n">
-        <v>18.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>6.65</v>
       </c>
       <c r="C56" t="n">
-        <v>24.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C57" t="n">
-        <v>20.9</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C58" t="n">
-        <v>27.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>6.56</v>
+        <v>44105</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>6.73</v>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="C60" t="n">
-        <v>19.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>6.04</v>
+        <v>6.35</v>
       </c>
       <c r="C61" t="n">
-        <v>10.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="C62" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>4.87</v>
+        <v>5.96</v>
       </c>
       <c r="C63" t="n">
-        <v>-9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="C64" t="n">
-        <v>-25.1</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="C65" t="n">
-        <v>-16</v>
+        <v>-25.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>5.34</v>
+        <v>4.46</v>
       </c>
       <c r="C66" t="n">
-        <v>1.7</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>5.63</v>
+        <v>5.34</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>5.35</v>
+        <v>5.63</v>
       </c>
       <c r="C68" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="C69" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>4.97</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
         <v>43405</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B82" s="2" t="n">
         <v>5.01</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="3" t="n"/>
+    <row r="83">
+      <c r="A83" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/existing-home-sales.xlsx
+++ b/data/existing-home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,890 +436,903 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.93</v>
+        <v>4.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>4.03</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>-1.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-3.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B6" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.7</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B7" t="n">
-        <v>4.26</v>
+        <v>4.02</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.7</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>4.08</v>
+        <v>45689</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.26</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="n"/>
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B11" s="4" t="n">
         <v>4.15</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>6.1</v>
-      </c>
-      <c r="D10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.9</v>
       </c>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>3.83</v>
+        <v>3.96</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.2</v>
+        <v>-3.7</v>
       </c>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>3.9</v>
+        <v>45474</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>3.96</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.1</v>
+        <v>-2.2</v>
       </c>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.8</v>
+        <v>-5.1</v>
       </c>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="C18" t="n">
-        <v>-3</v>
+        <v>-1.9</v>
       </c>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.7</v>
+        <v>-1.7</v>
       </c>
       <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.1</v>
+        <v>-3.7</v>
       </c>
       <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.3</v>
+        <v>-5.1</v>
       </c>
       <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="C24" t="n">
-        <v>-15</v>
+        <v>-13.3</v>
       </c>
       <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C25" t="n">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C26" t="n">
-        <v>-17</v>
+        <v>-15.5</v>
       </c>
       <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="C27" t="n">
-        <v>-19.9</v>
+        <v>-17</v>
       </c>
       <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="C28" t="n">
-        <v>-21.7</v>
+        <v>-19.9</v>
       </c>
       <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C29" t="n">
-        <v>-24.2</v>
+        <v>-21.7</v>
       </c>
       <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="C30" t="n">
-        <v>-23.6</v>
+        <v>-24.2</v>
       </c>
       <c r="D30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>4.53</v>
+        <v>4.35</v>
       </c>
       <c r="C31" t="n">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="D31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>4.07</v>
+        <v>44958</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>4.53</v>
       </c>
       <c r="C32" t="n">
-        <v>-35.8</v>
-      </c>
+        <v>-23.5</v>
+      </c>
+      <c r="D32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C33" t="n">
-        <v>-33.8</v>
+        <v>-35.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="C34" t="n">
-        <v>-34.9</v>
+        <v>-33.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>4.44</v>
+        <v>4.12</v>
       </c>
       <c r="C35" t="n">
-        <v>-28.3</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="C36" t="n">
-        <v>-24.3</v>
+        <v>-28.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>4.77</v>
+        <v>4.68</v>
       </c>
       <c r="C37" t="n">
-        <v>-20.4</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>4.88</v>
+        <v>4.77</v>
       </c>
       <c r="C38" t="n">
-        <v>-19.1</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="C39" t="n">
-        <v>-14.1</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.800000000000001</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>5.57</v>
+        <v>5.4</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.5</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>5.69</v>
+        <v>5.57</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.8</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.1</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>6.34</v>
+        <v>5.92</v>
       </c>
       <c r="C44" t="n">
-        <v>-4.7</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>6.09</v>
+        <v>6.34</v>
       </c>
       <c r="C45" t="n">
-        <v>-8.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.9</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="C47" t="n">
-        <v>-8</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="C48" t="n">
-        <v>-5.8</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C52" t="n">
-        <v>21.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C53" t="n">
-        <v>45.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6.04</v>
+        <v>5.96</v>
       </c>
       <c r="C54" t="n">
-        <v>35.4</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="C55" t="n">
-        <v>15.5</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="C56" t="n">
-        <v>18.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>6.65</v>
       </c>
       <c r="C57" t="n">
-        <v>24.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C58" t="n">
-        <v>20.9</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C59" t="n">
-        <v>27.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>6.56</v>
+        <v>44105</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>6.73</v>
       </c>
       <c r="C60" t="n">
-        <v>24</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="C61" t="n">
-        <v>19.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>6.04</v>
+        <v>6.35</v>
       </c>
       <c r="C62" t="n">
-        <v>10.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>5.96</v>
+        <v>6.04</v>
       </c>
       <c r="C63" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>4.87</v>
+        <v>5.96</v>
       </c>
       <c r="C64" t="n">
-        <v>-9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>4.09</v>
+        <v>4.87</v>
       </c>
       <c r="C65" t="n">
-        <v>-25.1</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>4.46</v>
+        <v>4.09</v>
       </c>
       <c r="C66" t="n">
-        <v>-16</v>
+        <v>-25.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>5.34</v>
+        <v>4.46</v>
       </c>
       <c r="C67" t="n">
-        <v>1.7</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>5.63</v>
+        <v>5.34</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>5.35</v>
+        <v>5.63</v>
       </c>
       <c r="C69" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="C70" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>4.97</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
         <v>43405</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B83" s="2" t="n">
         <v>5.01</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="3" t="n"/>
+    <row r="84">
+      <c r="A84" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
